--- a/biology/Médecine/Kenshūi_Tendō_Dokuta/Kenshūi_Tendō_Dokuta.xlsx
+++ b/biology/Médecine/Kenshūi_Tendō_Dokuta/Kenshūi_Tendō_Dokuta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kensh%C5%ABi_Tend%C5%8D_Dokuta</t>
+          <t>Kenshūi_Tendō_Dokuta</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kenshūi Tendō Dokuta (研修医 天堂独太) est une simulation de médecine sur Nintendo DS, sortie au Japon en décembre 2004, soit au lancement de la console.
 Il a pour suite LifeSigns: Surgical Unit (Kenshūi Tendō Dokuta 2: Inochi no Tenbin).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kensh%C5%ABi_Tend%C5%8D_Dokuta</t>
+          <t>Kenshūi_Tendō_Dokuta</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Système de jeu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le joueur incarne le jeune Tendo Dokuta, médecin interne à l'université médicale de Seimei. Il doit recevoir ses patients, trouver leurs problèmes et les opérer. Durant les phases d'opérations, il est assisté par ses collègues, qui lui indiqueront l'endroit où il faut couper, et lui fourniront les outils nécessaires au bon déroulement de la chirurgie. La possibilité de choisir les zones de l'hôpital où l'on veut se déplacer est aussi présente. Il faut parler avec les différents personnages pour avoir des renseignements sur les patients et collègues.
 </t>
